--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.465169666666667</v>
+        <v>0.8999933333333333</v>
       </c>
       <c r="H2">
-        <v>4.395509000000001</v>
+        <v>2.69998</v>
       </c>
       <c r="I2">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="J2">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="N2">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="O2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="P2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="Q2">
-        <v>151.5388918640039</v>
+        <v>106.2304419020089</v>
       </c>
       <c r="R2">
-        <v>1363.850026776035</v>
+        <v>956.0739771180799</v>
       </c>
       <c r="S2">
-        <v>0.008027802861765332</v>
+        <v>0.004749812206263314</v>
       </c>
       <c r="T2">
-        <v>0.008027802861765332</v>
+        <v>0.004749812206263315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.465169666666667</v>
+        <v>0.8999933333333333</v>
       </c>
       <c r="H3">
-        <v>4.395509000000001</v>
+        <v>2.69998</v>
       </c>
       <c r="I3">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="J3">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>648.391617</v>
       </c>
       <c r="O3">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="P3">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="Q3">
-        <v>316.6679097831171</v>
+        <v>194.51604422974</v>
       </c>
       <c r="R3">
-        <v>2850.011188048054</v>
+        <v>1750.64439806766</v>
       </c>
       <c r="S3">
-        <v>0.01677554534757692</v>
+        <v>0.008697268548018737</v>
       </c>
       <c r="T3">
-        <v>0.01677554534757692</v>
+        <v>0.008697268548018739</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.465169666666667</v>
+        <v>0.8999933333333333</v>
       </c>
       <c r="H4">
-        <v>4.395509000000001</v>
+        <v>2.69998</v>
       </c>
       <c r="I4">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="J4">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="N4">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="O4">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="P4">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="Q4">
-        <v>36.56066879592733</v>
+        <v>41.28850095698667</v>
       </c>
       <c r="R4">
-        <v>329.046019163346</v>
+        <v>371.59650861288</v>
       </c>
       <c r="S4">
-        <v>0.00193680868308974</v>
+        <v>0.001846105714261376</v>
       </c>
       <c r="T4">
-        <v>0.001936808683089739</v>
+        <v>0.001846105714261377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.465169666666667</v>
+        <v>0.8999933333333333</v>
       </c>
       <c r="H5">
-        <v>4.395509000000001</v>
+        <v>2.69998</v>
       </c>
       <c r="I5">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="J5">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="N5">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="O5">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="P5">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="Q5">
-        <v>104.9168805011417</v>
+        <v>56.42024756914444</v>
       </c>
       <c r="R5">
-        <v>944.2519245102751</v>
+        <v>507.7822281223</v>
       </c>
       <c r="S5">
-        <v>0.005557992560024932</v>
+        <v>0.002522681594712</v>
       </c>
       <c r="T5">
-        <v>0.005557992560024932</v>
+        <v>0.002522681594712002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>120.480656</v>
       </c>
       <c r="I6">
-        <v>0.8852904711645571</v>
+        <v>0.7949938412397365</v>
       </c>
       <c r="J6">
-        <v>0.8852904711645572</v>
+        <v>0.7949938412397366</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="N6">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="O6">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="P6">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="Q6">
-        <v>4153.672555621717</v>
+        <v>4740.299308707442</v>
       </c>
       <c r="R6">
-        <v>37383.05300059544</v>
+        <v>42662.69377836698</v>
       </c>
       <c r="S6">
-        <v>0.220041627721423</v>
+        <v>0.2119498998094102</v>
       </c>
       <c r="T6">
-        <v>0.220041627721423</v>
+        <v>0.2119498998094103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>120.480656</v>
       </c>
       <c r="I7">
-        <v>0.8852904711645571</v>
+        <v>0.7949938412397365</v>
       </c>
       <c r="J7">
-        <v>0.8852904711645572</v>
+        <v>0.7949938412397366</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>648.391617</v>
       </c>
       <c r="O7">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="P7">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="Q7">
         <v>8679.849706784529</v>
@@ -883,10 +883,10 @@
         <v>78118.64736106076</v>
       </c>
       <c r="S7">
-        <v>0.4598167602964333</v>
+        <v>0.3880964377786003</v>
       </c>
       <c r="T7">
-        <v>0.4598167602964333</v>
+        <v>0.3880964377786004</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>120.480656</v>
       </c>
       <c r="I8">
-        <v>0.8852904711645571</v>
+        <v>0.7949938412397365</v>
       </c>
       <c r="J8">
-        <v>0.8852904711645572</v>
+        <v>0.7949938412397366</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="N8">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="O8">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="P8">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="Q8">
-        <v>1002.125888112629</v>
+        <v>1842.408343970838</v>
       </c>
       <c r="R8">
-        <v>9019.132993013664</v>
+        <v>16581.67509573754</v>
       </c>
       <c r="S8">
-        <v>0.05308781774423575</v>
+        <v>0.08237839817315655</v>
       </c>
       <c r="T8">
-        <v>0.05308781774423575</v>
+        <v>0.08237839817315658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>120.480656</v>
       </c>
       <c r="I9">
-        <v>0.8852904711645571</v>
+        <v>0.7949938412397365</v>
       </c>
       <c r="J9">
-        <v>0.8852904711645572</v>
+        <v>0.7949938412397366</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="N9">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="O9">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="P9">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="Q9">
-        <v>2875.765830135067</v>
+        <v>2517.629181998729</v>
       </c>
       <c r="R9">
-        <v>25881.8924712156</v>
+        <v>22658.66263798856</v>
       </c>
       <c r="S9">
-        <v>0.1523442654024649</v>
+        <v>0.1125691054785695</v>
       </c>
       <c r="T9">
-        <v>0.152344265402465</v>
+        <v>0.1125691054785695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.458552333333333</v>
+        <v>5.293300666666666</v>
       </c>
       <c r="H10">
-        <v>7.375657</v>
+        <v>15.879902</v>
       </c>
       <c r="I10">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="J10">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="N10">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="O10">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="P10">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="Q10">
-        <v>254.2820157003395</v>
+        <v>624.7931491420657</v>
       </c>
       <c r="R10">
-        <v>2288.538141303055</v>
+        <v>5623.138342278591</v>
       </c>
       <c r="S10">
-        <v>0.0134706402311995</v>
+        <v>0.02793596706415055</v>
       </c>
       <c r="T10">
-        <v>0.0134706402311995</v>
+        <v>0.02793596706415055</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.458552333333333</v>
+        <v>5.293300666666666</v>
       </c>
       <c r="H11">
-        <v>7.375657</v>
+        <v>15.879902</v>
       </c>
       <c r="I11">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="J11">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>648.391617</v>
       </c>
       <c r="O11">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="P11">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="Q11">
-        <v>531.368240963041</v>
+        <v>1144.043926175726</v>
       </c>
       <c r="R11">
-        <v>4782.314168667369</v>
+        <v>10296.39533558153</v>
       </c>
       <c r="S11">
-        <v>0.02814933798831333</v>
+        <v>0.05115288713628243</v>
       </c>
       <c r="T11">
-        <v>0.02814933798831332</v>
+        <v>0.05115288713628244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.458552333333333</v>
+        <v>5.293300666666666</v>
       </c>
       <c r="H12">
-        <v>7.375657</v>
+        <v>15.879902</v>
       </c>
       <c r="I12">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="J12">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="N12">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="O12">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="P12">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="Q12">
-        <v>61.34874316702867</v>
+        <v>242.8378539559013</v>
       </c>
       <c r="R12">
-        <v>552.138688503258</v>
+        <v>2185.540685603112</v>
       </c>
       <c r="S12">
-        <v>0.003249961840845194</v>
+        <v>0.0108578499930039</v>
       </c>
       <c r="T12">
-        <v>0.003249961840845194</v>
+        <v>0.0108578499930039</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.458552333333333</v>
+        <v>5.293300666666666</v>
       </c>
       <c r="H13">
-        <v>7.375657</v>
+        <v>15.879902</v>
       </c>
       <c r="I13">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="J13">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="N13">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="O13">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="P13">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="Q13">
-        <v>176.0503559625083</v>
+        <v>331.8350514499189</v>
       </c>
       <c r="R13">
-        <v>1584.453203662575</v>
+        <v>2986.515463049269</v>
       </c>
       <c r="S13">
-        <v>0.009326302535450571</v>
+        <v>0.01483712342359213</v>
       </c>
       <c r="T13">
-        <v>0.009326302535450573</v>
+        <v>0.01483712342359213</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.279948333333333</v>
+        <v>4.162877000000001</v>
       </c>
       <c r="H14">
-        <v>3.839845</v>
+        <v>12.488631</v>
       </c>
       <c r="I14">
-        <v>0.02821513678717742</v>
+        <v>0.08240646307997901</v>
       </c>
       <c r="J14">
-        <v>0.02821513678717743</v>
+        <v>0.08240646307997902</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="N14">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="O14">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="P14">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="Q14">
-        <v>132.3819053105194</v>
+        <v>491.3639322813974</v>
       </c>
       <c r="R14">
-        <v>1191.437147794675</v>
+        <v>4422.275390532576</v>
       </c>
       <c r="S14">
-        <v>0.007012957698354228</v>
+        <v>0.02197003383851674</v>
       </c>
       <c r="T14">
-        <v>0.007012957698354229</v>
+        <v>0.02197003383851674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.279948333333333</v>
+        <v>4.162877000000001</v>
       </c>
       <c r="H15">
-        <v>3.839845</v>
+        <v>12.488631</v>
       </c>
       <c r="I15">
-        <v>0.02821513678717742</v>
+        <v>0.08240646307997901</v>
       </c>
       <c r="J15">
-        <v>0.02821513678717743</v>
+        <v>0.08240646307997902</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>648.391617</v>
       </c>
       <c r="O15">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="P15">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="Q15">
-        <v>276.635923175485</v>
+        <v>899.7248498007032</v>
       </c>
       <c r="R15">
-        <v>2489.723308579365</v>
+        <v>8097.523648206328</v>
       </c>
       <c r="S15">
-        <v>0.01465484291470373</v>
+        <v>0.04022880821491708</v>
       </c>
       <c r="T15">
-        <v>0.01465484291470373</v>
+        <v>0.04022880821491709</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.279948333333333</v>
+        <v>4.162877000000001</v>
       </c>
       <c r="H16">
-        <v>3.839845</v>
+        <v>12.488631</v>
       </c>
       <c r="I16">
-        <v>0.02821513678717742</v>
+        <v>0.08240646307997901</v>
       </c>
       <c r="J16">
-        <v>0.02821513678717743</v>
+        <v>0.08240646307997902</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="N16">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="O16">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="P16">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="Q16">
-        <v>31.93880419143666</v>
+        <v>190.978026872404</v>
       </c>
       <c r="R16">
-        <v>287.4492377229299</v>
+        <v>1718.802241851636</v>
       </c>
       <c r="S16">
-        <v>0.001691964488690325</v>
+        <v>0.008539075494041353</v>
       </c>
       <c r="T16">
-        <v>0.001691964488690325</v>
+        <v>0.008539075494041355</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.279948333333333</v>
+        <v>4.162877000000001</v>
       </c>
       <c r="H17">
-        <v>3.839845</v>
+        <v>12.488631</v>
       </c>
       <c r="I17">
-        <v>0.02821513678717742</v>
+        <v>0.08240646307997901</v>
       </c>
       <c r="J17">
-        <v>0.02821513678717743</v>
+        <v>0.08240646307997902</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="N17">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="O17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="P17">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="Q17">
-        <v>91.65367628820833</v>
+        <v>260.9692119273817</v>
       </c>
       <c r="R17">
-        <v>824.8830865938751</v>
+        <v>2348.722907346435</v>
       </c>
       <c r="S17">
-        <v>0.004855371685429135</v>
+        <v>0.01166854553250384</v>
       </c>
       <c r="T17">
-        <v>0.004855371685429136</v>
+        <v>0.01166854553250385</v>
       </c>
     </row>
   </sheetData>
